--- a/model_lca/LCA_all_buildings.xlsx
+++ b/model_lca/LCA_all_buildings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="858" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11010" tabRatio="858" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MHF01-05" sheetId="12" r:id="rId1"/>
@@ -3392,6 +3392,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8528,7 +8529,6 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
           <cell r="B7">
             <v>60</v>
           </cell>
@@ -8569,10 +8569,6 @@
           <cell r="A9" t="str">
             <v>Air cavity</v>
           </cell>
-          <cell r="B9"/>
-          <cell r="I9"/>
-          <cell r="J9"/>
-          <cell r="K9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -8698,8 +8694,6 @@
           <cell r="A16" t="str">
             <v>Box beam element with intermediate cellu- lose insulation</v>
           </cell>
-          <cell r="B16"/>
-          <cell r="K16"/>
         </row>
         <row r="17">
           <cell r="A17" t="str">
@@ -8781,11 +8775,6 @@
             <v>0.25700000000000001</v>
           </cell>
         </row>
-        <row r="21">
-          <cell r="A21"/>
-          <cell r="B21"/>
-          <cell r="K21"/>
-        </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>Cement cast plaster floor</v>
@@ -9007,7 +8996,6 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33"/>
           <cell r="B33">
             <v>60</v>
           </cell>
@@ -9045,7 +9033,6 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35"/>
           <cell r="B35">
             <v>60</v>
           </cell>
@@ -9083,7 +9070,6 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37"/>
           <cell r="B37">
             <v>60</v>
           </cell>
@@ -9335,8 +9321,6 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50"/>
-          <cell r="B50"/>
           <cell r="H50" t="str">
             <v>rockwool</v>
           </cell>
@@ -9570,10 +9554,6 @@
             <v>0.17</v>
           </cell>
         </row>
-        <row r="62">
-          <cell r="A62"/>
-          <cell r="K62"/>
-        </row>
         <row r="63">
           <cell r="A63" t="str">
             <v>Flooring of polyurethane (PU)</v>
@@ -9698,8 +9678,6 @@
           <cell r="A69" t="str">
             <v xml:space="preserve">Gradient insulation EPS 40-140 mm </v>
           </cell>
-          <cell r="B69"/>
-          <cell r="K69"/>
         </row>
         <row r="70">
           <cell r="A70" t="str">
@@ -9745,7 +9723,6 @@
           <cell r="A72" t="str">
             <v>Gravel Non-woven filter (PE)</v>
           </cell>
-          <cell r="K72"/>
         </row>
         <row r="73">
           <cell r="A73" t="str">
@@ -9971,8 +9948,6 @@
           <cell r="A84" t="str">
             <v>Large scale timber board (GFP)</v>
           </cell>
-          <cell r="B84"/>
-          <cell r="K84"/>
         </row>
         <row r="85">
           <cell r="A85" t="str">
@@ -10055,7 +10030,6 @@
           </cell>
         </row>
         <row r="89">
-          <cell r="A89"/>
           <cell r="B89">
             <v>30</v>
           </cell>
@@ -10173,8 +10147,6 @@
           <cell r="A95" t="str">
             <v xml:space="preserve">Metal frame construction </v>
           </cell>
-          <cell r="B95"/>
-          <cell r="K95"/>
         </row>
         <row r="96">
           <cell r="A96" t="str">
@@ -10220,8 +10192,6 @@
           <cell r="A98" t="str">
             <v>Metal sheets</v>
           </cell>
-          <cell r="B98"/>
-          <cell r="K98"/>
         </row>
         <row r="99">
           <cell r="A99" t="str">
@@ -10264,8 +10234,6 @@
           <cell r="A101" t="str">
             <v>Mineral fibre board</v>
           </cell>
-          <cell r="B101"/>
-          <cell r="K101"/>
         </row>
         <row r="102">
           <cell r="A102" t="str">
@@ -10391,15 +10359,11 @@
           <cell r="A108" t="str">
             <v>Particle board, emission-free ("Living board")</v>
           </cell>
-          <cell r="B108"/>
-          <cell r="K108"/>
         </row>
         <row r="109">
           <cell r="A109" t="str">
             <v>Permeable fibre board (DHF)</v>
           </cell>
-          <cell r="B109"/>
-          <cell r="K109"/>
         </row>
         <row r="110">
           <cell r="A110" t="str">
@@ -10565,8 +10529,6 @@
           <cell r="A118" t="str">
             <v>Rafters (10/14)</v>
           </cell>
-          <cell r="B118"/>
-          <cell r="K118"/>
         </row>
         <row r="119">
           <cell r="A119" t="str">
@@ -10960,21 +10922,16 @@
           <cell r="A139" t="str">
             <v>Sun care Coating</v>
           </cell>
-          <cell r="K139"/>
         </row>
         <row r="140">
           <cell r="A140" t="str">
             <v>Suspension ceiling lining with intermediate rock wool insulation (0.06 m)</v>
           </cell>
-          <cell r="B140"/>
-          <cell r="K140"/>
         </row>
         <row r="141">
           <cell r="A141" t="str">
             <v>Synthetic rubber mat with nubs</v>
           </cell>
-          <cell r="B141"/>
-          <cell r="K141"/>
         </row>
         <row r="142">
           <cell r="A142" t="str">
@@ -11563,7 +11520,6 @@
           <cell r="B171">
             <v>30</v>
           </cell>
-          <cell r="K171"/>
         </row>
         <row r="172">
           <cell r="A172" t="str">
@@ -11572,7 +11528,6 @@
           <cell r="B172">
             <v>30</v>
           </cell>
-          <cell r="K172"/>
         </row>
         <row r="173">
           <cell r="A173" t="str">
@@ -11695,7 +11650,6 @@
           </cell>
         </row>
         <row r="179">
-          <cell r="A179"/>
           <cell r="B179">
             <v>30</v>
           </cell>
@@ -11733,7 +11687,6 @@
           </cell>
         </row>
         <row r="181">
-          <cell r="A181"/>
           <cell r="B181">
             <v>30</v>
           </cell>
@@ -11777,7 +11730,6 @@
           <cell r="B183">
             <v>30</v>
           </cell>
-          <cell r="K183"/>
         </row>
         <row r="184">
           <cell r="A184" t="str">
@@ -11800,7 +11752,6 @@
           </cell>
         </row>
         <row r="185">
-          <cell r="A185"/>
           <cell r="B185">
             <v>30</v>
           </cell>
@@ -11838,7 +11789,6 @@
           </cell>
         </row>
         <row r="187">
-          <cell r="A187"/>
           <cell r="B187">
             <v>30</v>
           </cell>
@@ -11879,7 +11829,6 @@
           <cell r="A189" t="str">
             <v>Electricity</v>
           </cell>
-          <cell r="B189"/>
           <cell r="H189" t="str">
             <v>'market for electricity, low voltage'</v>
           </cell>
@@ -12545,7 +12494,7 @@
   <dimension ref="A1:X44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B14"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13494,11 +13443,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="A12:A15"/>
@@ -13506,6 +13450,11 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23390,8 +23339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="A1:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24321,6 +24270,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="K1:L1"/>
@@ -24328,11 +24282,6 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24344,8 +24293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I248" sqref="I248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
